--- a/A.Template/Form_Builder.xlsx
+++ b/A.Template/Form_Builder.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\FFLSupport\A.Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648220E-41CB-4FD2-AC3E-FD3B1E09A4A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="34245" windowHeight="20175" xr2:uid="{CA3182C9-BB37-4DA4-AC55-9CFEF55B609C}"/>
+    <workbookView xWindow="0" yWindow="1056" windowWidth="34248" windowHeight="20172" activeTab="4" xr2:uid="{CA3182C9-BB37-4DA4-AC55-9CFEF55B609C}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,16 @@
     <sheet name="F" sheetId="4" r:id="rId4"/>
     <sheet name="G" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,10 +38,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="8">
   <si>
     <t>=IF(Lookup!C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")
-</t>
   </si>
   <si>
     <t>="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C</t>
@@ -54,13 +57,24 @@
   <si>
     <t>=Lookup!B$</t>
   </si>
+  <si>
+    <t>="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,11 +102,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,22 +430,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74094189-4060-4987-8770-95A9BD6428D1}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,21 +453,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,21 +486,21 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,10 +508,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,10 +530,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,10 +552,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,10 +563,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,10 +574,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,10 +585,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,10 +596,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,10 +607,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,10 +629,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,10 +651,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,10 +662,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,10 +673,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,10 +684,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,10 +695,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,10 +706,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,10 +717,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,10 +728,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,10 +739,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,10 +750,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,10 +761,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,10 +772,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,10 +783,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,10 +794,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,109 +805,109 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -894,10 +915,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -905,10 +926,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -916,7 +937,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -929,19 +950,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E120F24-BF94-43DA-A985-8157F56B7E6D}">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,16 +987,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,16 +1038,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,16 +1055,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,16 +1072,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,16 +1089,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,16 +1106,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,16 +1123,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,16 +1140,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,16 +1157,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,16 +1174,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,16 +1191,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,16 +1225,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,16 +1242,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,16 +1259,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,16 +1276,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,16 +1293,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,16 +1310,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,16 +1327,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,16 +1344,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,16 +1361,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,16 +1378,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,16 +1395,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,16 +1412,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,16 +1429,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,16 +1446,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,16 +1463,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1459,16 +1480,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,186 +1497,186 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="E34" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="E35" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="E36" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="E37" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>37</v>
       </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="E38" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>38</v>
       </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="E39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>39</v>
       </c>
-      <c r="E40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="E40" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>40</v>
       </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="E41" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>41</v>
       </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="E42" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>42</v>
       </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,16 +1684,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,16 +1701,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,13 +1718,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1716,19 +1737,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F924B98-A1F6-4F8A-9252-CA479AA37464}">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,16 +1774,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,16 +1791,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1787,16 +1808,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,16 +1825,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,16 +1842,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,16 +1859,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,16 +1876,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1872,16 +1893,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,16 +1910,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,16 +1927,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,16 +1944,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,16 +1961,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1957,16 +1978,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,16 +1995,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,16 +2012,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,16 +2029,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,16 +2046,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,16 +2063,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,16 +2080,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,16 +2097,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2093,16 +2114,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,16 +2131,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,16 +2148,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,16 +2165,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,16 +2182,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,16 +2199,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2195,16 +2216,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2212,16 +2233,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2229,16 +2250,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2246,16 +2267,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3">
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2263,16 +2284,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3">
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2280,169 +2301,169 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
         <v>34</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="E36" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5">
         <v>36</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="E37" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5">
         <v>37</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="E38" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
         <v>38</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="E39" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="5">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
         <v>39</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="E40" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
         <v>40</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="E41" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5">
         <v>41</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="E42" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5">
         <v>42</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2450,16 +2471,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3">
         <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,16 +2488,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3">
         <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -2484,13 +2505,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="3">
         <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2507,14 +2528,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2527,371 +2548,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAA2469-284E-4E26-B876-8F03D2433903}">
   <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="3">
         <v>45</v>
